--- a/Control de asistencia.xlsx
+++ b/Control de asistencia.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\DocenciaPostDoc\R_CEINDO\Github\R_course_ceindo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\R_course_ceindo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EDD319B-778D-4AE8-B1F7-A03469AB679E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B4FE7A-B922-4E92-AC71-0E1259B9118B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="2070" windowWidth="26655" windowHeight="26820" xr2:uid="{02895637-79F9-4548-9763-73B60EB026D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02895637-79F9-4548-9763-73B60EB026D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,158 +35,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
   <si>
     <t>Nombre</t>
   </si>
   <si>
-    <t>E-mail</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marta Sala Climent </t>
   </si>
   <si>
-    <t>MARTA.SALA1@alumnos.uchceu.es</t>
-  </si>
-  <si>
     <t>Marina Toquero</t>
   </si>
   <si>
-    <t>marinatc112@gmail.com</t>
-  </si>
-  <si>
     <t>Gemma María García Lluch</t>
   </si>
   <si>
-    <t>gemma.garcia2@alumnos.uchceu.es</t>
-  </si>
-  <si>
-    <t>belvicmig@alumnos.uchceu.es</t>
-  </si>
-  <si>
     <t>Miguel Ángel Beltrán Viciano</t>
   </si>
   <si>
     <t>Alba Couto Rodríguez</t>
   </si>
   <si>
-    <t>alba.coutorodriguez1@usp.ceu.es</t>
-  </si>
-  <si>
-    <t>m.quiralte@usp.ceu.es</t>
-  </si>
-  <si>
     <t>Quiralte Pulido, Miguel</t>
   </si>
   <si>
     <t>Antonio Tarín Pelló</t>
   </si>
   <si>
-    <t>antonio.tarin@alumnos.uchceu.es</t>
-  </si>
-  <si>
-    <t>sandra.camunasalberca@ceu.es</t>
-  </si>
-  <si>
     <t>Sandra M. Camuñas Alberca</t>
   </si>
   <si>
-    <t>maria.bajofernandez1@ceu.es</t>
-  </si>
-  <si>
     <t>María Bajo Fernández</t>
   </si>
   <si>
-    <t>l.mayo1@usp.ceu.es</t>
-  </si>
-  <si>
     <t>Laura Mayo Martinez</t>
   </si>
   <si>
-    <t>david.chamososanchez@usp.ceu.es</t>
-  </si>
-  <si>
     <t>David Chamoso Sanchez</t>
   </si>
   <si>
-    <t>pau.cuevas.ce@ceindo.ceu.es</t>
-  </si>
-  <si>
     <t>Paula Cuevas Delgado</t>
   </si>
   <si>
-    <t>m.moran4@usp.ceu.es</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maria Moran Garrido </t>
   </si>
   <si>
-    <t>belenfernandezrequena@gmail.com</t>
-  </si>
-  <si>
     <t>Belén Fdez Requena</t>
   </si>
   <si>
     <t>Carla Palacios Gorba</t>
   </si>
   <si>
-    <t>carla.palaciosgorba@uchceu.es</t>
-  </si>
-  <si>
     <t>Sara Martínez López</t>
   </si>
   <si>
-    <t>sara.martinezlopez@ceu.es</t>
-  </si>
-  <si>
-    <t>samantha.moratalmartinez@uchceu.es</t>
-  </si>
-  <si>
-    <t>Samantha Moratal Martínez</t>
-  </si>
-  <si>
-    <t>jaime.jordanlopez1@uchceu.es</t>
-  </si>
-  <si>
     <t>Jaime Jordán López</t>
   </si>
   <si>
-    <t>elena.bocoscorredor1@usp.ceu.es</t>
-  </si>
-  <si>
     <t>Elena Bocos Corredor</t>
   </si>
   <si>
     <t xml:space="preserve">Ignacio Piédrola Pedraza </t>
   </si>
   <si>
-    <t>i.piedrola@usp.ceu.es</t>
-  </si>
-  <si>
-    <t>Sandra Camuñas Alberca</t>
-  </si>
-  <si>
-    <t>marion.toquet1@uchceu.es</t>
-  </si>
-  <si>
     <t>Marion Toquet</t>
   </si>
   <si>
-    <t>yuval.markovich@uchceu.es</t>
-  </si>
-  <si>
-    <t>Yuval Markovich</t>
-  </si>
-  <si>
     <t>Javier Arranz Herrero</t>
   </si>
   <si>
-    <t>pepepneumo@gmail.com</t>
-  </si>
-  <si>
-    <t>j.arranz3@usp.ceu.es</t>
-  </si>
-  <si>
     <t>Jose ramon cugat garcia</t>
   </si>
   <si>
@@ -208,6 +125,12 @@
   </si>
   <si>
     <t>Sesión 7</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Alba Espi</t>
   </si>
 </sst>
 </file>
@@ -567,255 +490,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C7B028-3BAD-4BE0-BA17-90D4CD178BC1}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="1.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" t="s">
-        <v>49</v>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Control de asistencia.xlsx
+++ b/Control de asistencia.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\R_course_ceindo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alberto.gildelafuent\Desktop\alberto\repos_git\R_course_ceindo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B4FE7A-B922-4E92-AC71-0E1259B9118B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1316F6-D7AE-4AE2-A599-5AB7E2089F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02895637-79F9-4548-9763-73B60EB026D3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{02895637-79F9-4548-9763-73B60EB026D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
   <si>
     <t>Nombre</t>
   </si>
@@ -493,17 +492,17 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="1.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.7265625" customWidth="1"/>
+    <col min="2" max="2" width="1.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,12 +528,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -545,7 +544,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -553,7 +552,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -563,8 +562,11 @@
       <c r="D5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -574,8 +576,11 @@
       <c r="D6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -585,13 +590,16 @@
       <c r="D7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -601,8 +609,11 @@
       <c r="D9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -612,8 +623,11 @@
       <c r="D10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -623,8 +637,11 @@
       <c r="D11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -634,8 +651,11 @@
       <c r="D12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -645,8 +665,11 @@
       <c r="D13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -656,8 +679,11 @@
       <c r="D14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -667,8 +693,11 @@
       <c r="D15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -678,8 +707,11 @@
       <c r="D16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -689,8 +721,11 @@
       <c r="D17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -700,8 +735,11 @@
       <c r="D18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -711,8 +749,11 @@
       <c r="D19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -722,8 +763,11 @@
       <c r="D20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -733,16 +777,22 @@
       <c r="D21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -752,8 +802,11 @@
       <c r="D23" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -761,6 +814,9 @@
         <v>30</v>
       </c>
       <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Control de asistencia.xlsx
+++ b/Control de asistencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alberto.gildelafuent\Desktop\alberto\repos_git\R_course_ceindo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1316F6-D7AE-4AE2-A599-5AB7E2089F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629646F8-FFE2-4898-83D3-4C84FEF57DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{02895637-79F9-4548-9763-73B60EB026D3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="32">
   <si>
     <t>Nombre</t>
   </si>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C7B028-3BAD-4BE0-BA17-90D4CD178BC1}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -551,6 +551,9 @@
       <c r="D4" t="s">
         <v>30</v>
       </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -565,6 +568,9 @@
       <c r="E5" t="s">
         <v>30</v>
       </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -579,6 +585,9 @@
       <c r="E6" t="s">
         <v>30</v>
       </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -593,6 +602,9 @@
       <c r="E7" t="s">
         <v>30</v>
       </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -612,6 +624,9 @@
       <c r="E9" t="s">
         <v>30</v>
       </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -626,6 +641,9 @@
       <c r="E10" t="s">
         <v>30</v>
       </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -640,6 +658,9 @@
       <c r="E11" t="s">
         <v>30</v>
       </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -654,6 +675,9 @@
       <c r="E12" t="s">
         <v>30</v>
       </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -668,6 +692,9 @@
       <c r="E13" t="s">
         <v>30</v>
       </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -682,6 +709,9 @@
       <c r="E14" t="s">
         <v>30</v>
       </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -696,6 +726,9 @@
       <c r="E15" t="s">
         <v>30</v>
       </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -711,7 +744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -724,8 +757,11 @@
       <c r="E17" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -738,8 +774,11 @@
       <c r="E18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -752,8 +791,11 @@
       <c r="E19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -766,8 +808,11 @@
       <c r="E20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -780,8 +825,11 @@
       <c r="E21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -791,8 +839,11 @@
       <c r="E22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -805,8 +856,11 @@
       <c r="E23" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -817,6 +871,9 @@
         <v>30</v>
       </c>
       <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Control de asistencia.xlsx
+++ b/Control de asistencia.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="33">
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -223,10 +223,10 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="1.73"/>
@@ -288,6 +288,9 @@
       <c r="G4" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="H4" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -308,6 +311,9 @@
       <c r="G5" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="H5" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -328,6 +334,9 @@
       <c r="G6" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="H6" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -348,6 +357,9 @@
       <c r="G7" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="H7" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -373,6 +385,9 @@
       <c r="G9" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="H9" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -393,6 +408,9 @@
       <c r="G10" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="H10" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -413,6 +431,9 @@
       <c r="G11" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="H11" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -433,6 +454,9 @@
       <c r="G12" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="H12" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -453,6 +477,9 @@
       <c r="G13" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="H13" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -473,6 +500,9 @@
       <c r="G14" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="H14" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -493,6 +523,9 @@
       <c r="G15" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="H15" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -527,6 +560,9 @@
       <c r="G17" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="H17" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -547,6 +583,9 @@
       <c r="G18" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="H18" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -567,6 +606,9 @@
       <c r="G19" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="H19" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -587,6 +629,9 @@
       <c r="G20" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="H20" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -607,6 +652,9 @@
       <c r="G21" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="H21" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -627,6 +675,9 @@
       <c r="G22" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="H22" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -645,6 +696,9 @@
         <v>10</v>
       </c>
       <c r="G23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="0" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Control de asistencia.xlsx
+++ b/Control de asistencia.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="34">
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sesión 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega práctica</t>
   </si>
   <si>
     <t xml:space="preserve">Marta Sala Climent </t>
@@ -220,13 +223,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="1.73"/>
@@ -258,465 +265,480 @@
       <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Control de asistencia.xlsx
+++ b/Control de asistencia.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="34">
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -226,10 +226,10 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53515625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.52734375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="1.73"/>
@@ -692,6 +692,9 @@
       </c>
       <c r="I19" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Control de asistencia.xlsx
+++ b/Control de asistencia.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="34">
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -226,10 +226,10 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.52734375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="1.73"/>
@@ -597,6 +597,9 @@
       </c>
       <c r="I15" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Control de asistencia.xlsx
+++ b/Control de asistencia.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="34">
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -226,10 +226,10 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="1.73"/>
@@ -430,6 +430,9 @@
       <c r="I9" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="J9" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -640,6 +643,9 @@
       </c>
       <c r="I17" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Control de asistencia.xlsx
+++ b/Control de asistencia.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="34">
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -226,10 +226,10 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="1.73"/>
@@ -346,6 +346,9 @@
       </c>
       <c r="I5" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Control de asistencia.xlsx
+++ b/Control de asistencia.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="34">
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -226,10 +226,10 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="1.73"/>
@@ -376,6 +376,9 @@
       <c r="I6" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="J6" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -401,6 +404,9 @@
       </c>
       <c r="I7" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Control de asistencia.xlsx
+++ b/Control de asistencia.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="34">
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -226,10 +226,10 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="1.73"/>
@@ -320,6 +320,9 @@
       </c>
       <c r="I4" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Control de asistencia.xlsx
+++ b/Control de asistencia.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="34">
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -229,7 +229,7 @@
       <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="1.73"/>
@@ -820,6 +820,9 @@
       </c>
       <c r="I23" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Control de asistencia.xlsx
+++ b/Control de asistencia.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="34">
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -226,10 +226,10 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
+      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="1.73"/>
@@ -768,6 +768,9 @@
       </c>
       <c r="I21" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Control de asistencia.xlsx
+++ b/Control de asistencia.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="34">
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -229,7 +229,7 @@
       <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="1.73"/>
@@ -742,6 +742,9 @@
       </c>
       <c r="I20" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Control de asistencia.xlsx
+++ b/Control de asistencia.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="34">
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -226,10 +226,10 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
+      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="1.73"/>
@@ -289,6 +289,9 @@
       </c>
       <c r="I2" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
